--- a/Border Town Burning Campaign/Warband Rosters/kai/kai-warband_orks_n_squigs_n_goblins_n_boyz.xlsx
+++ b/Border Town Burning Campaign/Warband Rosters/kai/kai-warband_orks_n_squigs_n_goblins_n_boyz.xlsx
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17" activeCellId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
